--- a/dados/cleaned/pop_saopaulo.xlsx
+++ b/dados/cleaned/pop_saopaulo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\dh_projeto_integrador\dados\cleaned\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DD06BBA-37DC-442A-8A47-4D77F0D9DBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FB5326-D155-4BFC-B081-3EDBE27D9DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{D6DA1C2A-16AE-4F3D-B96C-3726939E4DBF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <t>media_pop_5anos</t>
   </si>
   <si>
-    <t>codcodigo_ibge_mun</t>
+    <t>codigo_ibge</t>
   </si>
 </sst>
 </file>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACF35C5-946F-4E8F-8656-65E96CC0F92F}">
   <dimension ref="A1:B646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A628" workbookViewId="0">
-      <selection activeCell="B630" sqref="B630"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5570,5 +5570,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>